--- a/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
@@ -8232,10 +8232,12 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
@@ -17720,10 +17722,12 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
@@ -17734,7 +17738,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="45.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="35.85"/>
@@ -30510,7 +30514,7 @@
   </sheetData>
   <dataValidations count="7">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O220 N221:N384" type="list">
-      <formula1>INDIRECT(SUBSTITUTE(M5," ","_"))</formula1>
+      <formula1>INDIRECT(SUBSTITUTE(#REF!," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N220 M221:M384" type="list">
@@ -30553,13 +30557,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.56"/>
   </cols>
@@ -31607,7 +31611,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>

--- a/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
@@ -8237,7 +8237,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.14"/>
@@ -17727,7 +17727,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.3"/>
@@ -30512,9 +30512,9 @@
       <c r="O1000" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O220 N221:N384" type="list">
-      <formula1>INDIRECT(SUBSTITUTE(#REF!," ","_"))</formula1>
+  <dataValidations count="8">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N221:N384" type="list">
+      <formula1>INDIRECT(SUBSTITUTE(#ref!," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N5:N220 M221:M384" type="list">
@@ -30525,7 +30525,7 @@
       <formula1>Index!$H$2:$H$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P5:P220 O221:O384" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P5:P220" type="list">
       <formula1>Index!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -30539,6 +30539,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R220 Q221:Q384" type="list">
       <formula1>Index!$C$18:$C$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O5:O384" type="list">
+      <formula1>INDIRECT(SUBSTITUTE(N5," ","_"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -30563,7 +30567,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.56"/>
   </cols>
@@ -31607,11 +31611,11 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>

--- a/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Library Batch" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Library" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Info" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Index" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Library Batch" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Library" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Info" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Index" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Agilent_SureSelect_XT_V2_384" vbProcedure="false">Index!$W$2:$W$385</definedName>
@@ -11743,123 +11743,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12023,7 +11917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -21295,7 +21189,7 @@
   <mergeCells count="1">
     <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B380" type="list">
       <formula1>Index!$E$2:$E$8</formula1>
       <formula2>0</formula2>
@@ -21324,8 +21218,12 @@
       <formula1>Index!$I$2:$I$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:G380" type="list">
-      <formula1>Index!$F$2:$F$9</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F380" type="list">
+      <formula1>Index!$F$2:$F$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G380" type="list">
+      <formula1>Index!$F$2:$F$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -21340,7 +21238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -34182,7 +34080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -35230,14 +35128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Library Batch" sheetId="1" state="visible" r:id="rId2"/>
@@ -11750,10 +11750,10 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35134,8 +35134,8 @@
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Library Batch" sheetId="1" state="visible" r:id="rId2"/>
@@ -11750,7 +11750,7 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -35134,7 +35134,7 @@
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Library_preparation_v4_4_0.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="3701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="3701">
   <si>
     <t xml:space="preserve">Library Preparation Template</t>
   </si>
@@ -21478,7 +21478,9 @@
         <v>3</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
